--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\PROJETOS\APP\Códigos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24905F0F-4125-4BE1-8794-6E765A196635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590E4B8D-83F0-4CE6-B0D0-A6D48D086746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="163">
   <si>
     <t>Complemento</t>
   </si>
@@ -425,18 +425,6 @@
     <t>S110018</t>
   </si>
   <si>
-    <t>FITA CETIM - AMARELO</t>
-  </si>
-  <si>
-    <t>S150203</t>
-  </si>
-  <si>
-    <t>FITA CETIM - AZUL</t>
-  </si>
-  <si>
-    <t>FITA CETIM - ROSA</t>
-  </si>
-  <si>
     <t>FITA DUPLA FACE - UNICA</t>
   </si>
   <si>
@@ -513,6 +501,33 @@
   </si>
   <si>
     <t>SACOLA PLASTICA - 25X30</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
+  </si>
+  <si>
+    <t>S050008</t>
+  </si>
+  <si>
+    <t>UM.</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PC C/8</t>
+  </si>
+  <si>
+    <t>PC C/100</t>
+  </si>
+  <si>
+    <t>MIL</t>
   </si>
 </sst>
 </file>
@@ -595,7 +610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -609,12 +624,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF00B0F0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -946,979 +976,1216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>831</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>1046</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D23" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D24" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D26" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D27" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>899</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>896</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>900</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>898</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D39" s="4">
         <v>471</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D40" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="4">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="B52" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B53" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="4" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="4">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="4">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="4">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="4">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="4">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="4">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" s="4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" s="4">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D80" s="4">
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" s="4" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="4">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="4">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="4">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="4">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="4">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" s="4">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="4">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="4">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" s="4" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C75" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C76" s="4">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" s="4">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" s="4">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" s="4">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C80" s="4">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81" s="4">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C82" s="4">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C86" s="4">
+      <c r="D84" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$D1&lt;&gt;""</formula>
+  <autoFilter ref="A1:D84" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}"/>
+  <conditionalFormatting sqref="A1 C1:D1">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C86">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A2:D84">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="C5:C49 C80:C86 C50:C78" numberStoredAsText="1"/>
+    <ignoredError sqref="D78:D84 D44:D76 D5:D42" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590E4B8D-83F0-4CE6-B0D0-A6D48D086746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85474CD-E80C-4749-BC7A-A5D6047DD9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="168">
   <si>
     <t>Complemento</t>
   </si>
@@ -528,6 +528,21 @@
   </si>
   <si>
     <t>MIL</t>
+  </si>
+  <si>
+    <t>MEXEDOR PARA CAFE - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>S150037</t>
+  </si>
+  <si>
+    <t>ADOÇANTE - 100ML</t>
+  </si>
+  <si>
+    <t>S030004</t>
+  </si>
+  <si>
+    <t>118</t>
   </si>
 </sst>
 </file>
@@ -632,14 +647,20 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <border>
-        <left/>
-        <right/>
-        <top/>
         <bottom style="thin">
-          <color rgb="FF00B0F0"/>
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -976,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,133 +1041,133 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4">
-        <v>105</v>
+        <v>166</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>110</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="4">
-        <v>831</v>
+        <v>109</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="D7" s="4">
-        <v>809</v>
+        <v>831</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4">
-        <v>1046</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4">
-        <v>104</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D10" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>157</v>
@@ -1155,82 +1176,82 @@
         <v>14</v>
       </c>
       <c r="D12" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="D14" s="4">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>111</v>
+        <v>19</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2</v>
+        <v>115</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>157</v>
@@ -1239,12 +1260,12 @@
         <v>21</v>
       </c>
       <c r="D18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>157</v>
@@ -1253,68 +1274,68 @@
         <v>21</v>
       </c>
       <c r="D19" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>111</v>
+        <v>24</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="4">
-        <v>52</v>
+        <v>118</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" s="4">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>159</v>
@@ -1323,46 +1344,46 @@
         <v>28</v>
       </c>
       <c r="D24" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="4">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1370,41 +1391,41 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>111</v>
+        <v>32</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
+        <v>122</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1412,55 +1433,55 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>125</v>
+        <v>36</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1468,21 +1489,21 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D35" s="4">
-        <v>899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>157</v>
@@ -1491,12 +1512,12 @@
         <v>42</v>
       </c>
       <c r="D36" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>157</v>
@@ -1505,12 +1526,12 @@
         <v>42</v>
       </c>
       <c r="D37" s="4">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>157</v>
@@ -1519,40 +1540,40 @@
         <v>42</v>
       </c>
       <c r="D38" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="D39" s="4">
-        <v>471</v>
+        <v>898</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="D40" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>157</v>
@@ -1561,46 +1582,46 @@
         <v>47</v>
       </c>
       <c r="D41" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>111</v>
+        <v>47</v>
+      </c>
+      <c r="D42" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1</v>
+        <v>129</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1608,27 +1629,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D45" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D46" s="4">
         <v>80</v>
@@ -1636,77 +1657,77 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D47" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D48" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D49" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D50" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D51" s="4">
-        <v>2</v>
+        <v>745</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>157</v>
@@ -1714,13 +1735,13 @@
       <c r="C52" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>131</v>
+      <c r="D52" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>157</v>
@@ -1729,46 +1750,46 @@
         <v>64</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D55" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>111</v>
@@ -1776,105 +1797,105 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D57" s="4">
-        <v>820</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="4">
-        <v>819</v>
+        <v>135</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D59" s="4">
-        <v>750</v>
+        <v>820</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D60" s="4">
-        <v>553</v>
+        <v>819</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D61" s="4">
-        <v>395</v>
+        <v>750</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D62" s="4">
-        <v>86</v>
+        <v>553</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D63" s="4">
-        <v>87</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>157</v>
@@ -1883,208 +1904,208 @@
         <v>79</v>
       </c>
       <c r="D64" s="4">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D65" s="4">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D66" s="4">
-        <v>54</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D67" s="4">
-        <v>994</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D68" s="4">
-        <v>695</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>111</v>
+        <v>84</v>
+      </c>
+      <c r="D69" s="4">
+        <v>994</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D70" s="4">
-        <v>1</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>111</v>
+        <v>87</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D73" s="4">
-        <v>107</v>
+        <v>141</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="4">
-        <v>170</v>
+        <v>144</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D75" s="4">
-        <v>163</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D76" s="4">
-        <v>799</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D77" s="4">
-        <v>1127</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D78" s="4">
-        <v>569</v>
+        <v>799</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>162</v>
@@ -2093,99 +2114,132 @@
         <v>94</v>
       </c>
       <c r="D79" s="4">
-        <v>762</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D80" s="4">
-        <v>211</v>
+        <v>569</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>111</v>
+        <v>94</v>
+      </c>
+      <c r="D81" s="4">
+        <v>762</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>111</v>
+        <v>98</v>
+      </c>
+      <c r="D82" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" s="4" t="s">
+      <c r="B86" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D86" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D84" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}"/>
-  <conditionalFormatting sqref="A1 C1:D1">
-    <cfRule type="expression" dxfId="2" priority="4">
+  <autoFilter ref="A1:D86" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}"/>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D84">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
+  <conditionalFormatting sqref="A2:D2 A57:D86 A4:D55">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="5">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$E1&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A56:D56">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A56))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:D3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D78:D84 D44:D76 D5:D42" numberStoredAsText="1"/>
+    <ignoredError sqref="D80:D86 D57:D78 D6:D43 D45:D55" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85474CD-E80C-4749-BC7A-A5D6047DD9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B333A61F-2308-41D5-809D-117C0D5E0B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -344,12 +344,6 @@
     <t>S030001</t>
   </si>
   <si>
-    <t>BOM AR - 360ML</t>
-  </si>
-  <si>
-    <t>S010066</t>
-  </si>
-  <si>
     <t>CAFE - 250G - 250G</t>
   </si>
   <si>
@@ -543,6 +537,12 @@
   </si>
   <si>
     <t>118</t>
+  </si>
+  <si>
+    <t>DESODORIZADOR DE AMBIENTE - UNICA</t>
+  </si>
+  <si>
+    <t>S010012</t>
   </si>
 </sst>
 </file>
@@ -647,16 +647,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -701,9 +692,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -741,7 +732,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -847,7 +838,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -989,7 +980,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -999,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1030,7 +1021,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>100</v>
@@ -1041,16 +1032,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1058,7 +1049,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -1072,7 +1063,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1083,27 +1074,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="4">
         <v>831</v>
@@ -1114,7 +1105,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1128,7 +1119,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1139,226 +1130,226 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D10" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D13" s="4">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>111</v>
+        <v>21</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D20" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>111</v>
+        <v>26</v>
+      </c>
+      <c r="D22" s="4">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D23" s="4">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="D25" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1366,7 +1357,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1377,13 +1368,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1394,7 +1385,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
@@ -1405,16 +1396,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1422,7 +1413,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>34</v>
@@ -1436,7 +1427,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1447,30 +1438,30 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1478,7 +1469,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>38</v>
@@ -1492,7 +1483,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>40</v>
@@ -1506,7 +1497,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>42</v>
@@ -1520,7 +1511,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>42</v>
@@ -1534,7 +1525,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>42</v>
@@ -1548,7 +1539,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1559,13 +1550,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D40" s="4">
         <v>471</v>
@@ -1576,7 +1567,7 @@
         <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>47</v>
@@ -1590,7 +1581,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>47</v>
@@ -1601,27 +1592,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1632,7 +1623,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>50</v>
@@ -1646,7 +1637,7 @@
         <v>51</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>52</v>
@@ -1660,7 +1651,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>54</v>
@@ -1674,7 +1665,7 @@
         <v>55</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>56</v>
@@ -1688,7 +1679,7 @@
         <v>57</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>58</v>
@@ -1702,7 +1693,7 @@
         <v>59</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>60</v>
@@ -1716,7 +1707,7 @@
         <v>61</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>62</v>
@@ -1730,7 +1721,7 @@
         <v>63</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>64</v>
@@ -1741,30 +1732,30 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,7 +1763,7 @@
         <v>65</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>66</v>
@@ -1783,16 +1774,16 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1800,7 +1791,7 @@
         <v>67</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>68</v>
@@ -1811,16 +1802,16 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,7 +1819,7 @@
         <v>69</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>70</v>
@@ -1842,7 +1833,7 @@
         <v>71</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>70</v>
@@ -1856,7 +1847,7 @@
         <v>72</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>73</v>
@@ -1870,7 +1861,7 @@
         <v>74</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>75</v>
@@ -1884,7 +1875,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>77</v>
@@ -1898,7 +1889,7 @@
         <v>78</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>79</v>
@@ -1912,7 +1903,7 @@
         <v>80</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>79</v>
@@ -1926,7 +1917,7 @@
         <v>81</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>79</v>
@@ -1937,10 +1928,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>82</v>
@@ -1951,10 +1942,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>82</v>
@@ -1968,7 +1959,7 @@
         <v>85</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>84</v>
@@ -1982,7 +1973,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>84</v>
@@ -1993,16 +1984,16 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2010,7 +2001,7 @@
         <v>86</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>87</v>
@@ -2021,30 +2012,30 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2052,7 +2043,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>89</v>
@@ -2066,7 +2057,7 @@
         <v>90</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>91</v>
@@ -2080,7 +2071,7 @@
         <v>92</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>91</v>
@@ -2094,7 +2085,7 @@
         <v>93</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>91</v>
@@ -2105,10 +2096,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>94</v>
@@ -2122,7 +2113,7 @@
         <v>95</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>94</v>
@@ -2136,7 +2127,7 @@
         <v>96</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>94</v>
@@ -2150,7 +2141,7 @@
         <v>97</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>98</v>
@@ -2161,55 +2152,55 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -2218,28 +2209,23 @@
   </sheetData>
   <autoFilter ref="A1:D86" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}"/>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D2 A57:D86 A4:D55">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="5">
+  <conditionalFormatting sqref="A2:D24 A26:D86">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:D56">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A56))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:D3">
+  <conditionalFormatting sqref="A25:D25">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
+      <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D80:D86 D57:D78 D6:D43 D45:D55" numberStoredAsText="1"/>
+    <ignoredError sqref="D80:D86 D57:D78 D45:D55 D26:D43 D6:D24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B333A61F-2308-41D5-809D-117C0D5E0B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B65F6CC-D141-4942-BE5C-E9C3A451ACAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -488,9 +488,6 @@
     <t>S020009</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
@@ -543,6 +540,9 @@
   </si>
   <si>
     <t>S010012</t>
+  </si>
+  <si>
+    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -640,6 +640,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -990,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1021,7 +1024,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>100</v>
@@ -1032,16 +1035,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1049,7 +1052,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -1063,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1077,7 +1080,7 @@
         <v>106</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>107</v>
@@ -1091,7 +1094,7 @@
         <v>110</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>111</v>
@@ -1105,7 +1108,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1119,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1133,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -1147,7 +1150,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1161,7 +1164,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1175,7 +1178,7 @@
         <v>101</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>102</v>
@@ -1189,7 +1192,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -1203,7 +1206,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -1217,7 +1220,7 @@
         <v>112</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>113</v>
@@ -1231,7 +1234,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1245,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1259,7 +1262,7 @@
         <v>114</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
@@ -1273,7 +1276,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1287,7 +1290,7 @@
         <v>115</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>116</v>
@@ -1301,7 +1304,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>26</v>
@@ -1315,7 +1318,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>28</v>
@@ -1329,7 +1332,7 @@
         <v>103</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>28</v>
@@ -1340,13 +1343,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1357,7 +1360,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1371,7 +1374,7 @@
         <v>117</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>118</v>
@@ -1385,7 +1388,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
@@ -1399,7 +1402,7 @@
         <v>119</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>120</v>
@@ -1413,7 +1416,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>34</v>
@@ -1427,7 +1430,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1441,7 +1444,7 @@
         <v>121</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>122</v>
@@ -1455,7 +1458,7 @@
         <v>124</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>125</v>
@@ -1469,7 +1472,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>38</v>
@@ -1483,7 +1486,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>40</v>
@@ -1497,7 +1500,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>42</v>
@@ -1511,7 +1514,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>42</v>
@@ -1525,7 +1528,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>42</v>
@@ -1539,7 +1542,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1553,7 +1556,7 @@
         <v>104</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>105</v>
@@ -1567,7 +1570,7 @@
         <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>47</v>
@@ -1581,7 +1584,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>47</v>
@@ -1595,7 +1598,7 @@
         <v>126</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>127</v>
@@ -1606,13 +1609,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1623,7 +1626,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>50</v>
@@ -1637,7 +1640,7 @@
         <v>51</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>52</v>
@@ -1651,7 +1654,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>54</v>
@@ -1665,7 +1668,7 @@
         <v>55</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>56</v>
@@ -1679,7 +1682,7 @@
         <v>57</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>58</v>
@@ -1693,7 +1696,7 @@
         <v>59</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>60</v>
@@ -1707,7 +1710,7 @@
         <v>61</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>62</v>
@@ -1721,7 +1724,7 @@
         <v>63</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>64</v>
@@ -1735,7 +1738,7 @@
         <v>128</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>64</v>
@@ -1749,7 +1752,7 @@
         <v>130</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>64</v>
@@ -1763,7 +1766,7 @@
         <v>65</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>66</v>
@@ -1774,13 +1777,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>109</v>
@@ -1791,7 +1794,7 @@
         <v>67</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>68</v>
@@ -1805,7 +1808,7 @@
         <v>132</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>133</v>
@@ -1819,7 +1822,7 @@
         <v>69</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>70</v>
@@ -1833,7 +1836,7 @@
         <v>71</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>70</v>
@@ -1847,7 +1850,7 @@
         <v>72</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>73</v>
@@ -1861,7 +1864,7 @@
         <v>74</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>75</v>
@@ -1875,7 +1878,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>77</v>
@@ -1889,7 +1892,7 @@
         <v>78</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>79</v>
@@ -1903,7 +1906,7 @@
         <v>80</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>79</v>
@@ -1917,7 +1920,7 @@
         <v>81</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>79</v>
@@ -1931,7 +1934,7 @@
         <v>134</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>82</v>
@@ -1945,7 +1948,7 @@
         <v>135</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>82</v>
@@ -1959,7 +1962,7 @@
         <v>85</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>84</v>
@@ -1973,7 +1976,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>84</v>
@@ -1987,7 +1990,7 @@
         <v>136</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>137</v>
@@ -2001,7 +2004,7 @@
         <v>86</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>87</v>
@@ -2015,7 +2018,7 @@
         <v>138</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>139</v>
@@ -2029,7 +2032,7 @@
         <v>141</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>142</v>
@@ -2043,7 +2046,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>89</v>
@@ -2057,7 +2060,7 @@
         <v>90</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>91</v>
@@ -2071,7 +2074,7 @@
         <v>92</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>91</v>
@@ -2085,7 +2088,7 @@
         <v>93</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>91</v>
@@ -2096,10 +2099,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>94</v>
@@ -2113,7 +2116,7 @@
         <v>95</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>94</v>
@@ -2127,7 +2130,7 @@
         <v>96</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>94</v>
@@ -2141,7 +2144,7 @@
         <v>97</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>98</v>
@@ -2155,7 +2158,7 @@
         <v>143</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>144</v>
@@ -2169,7 +2172,7 @@
         <v>145</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>146</v>
@@ -2183,7 +2186,7 @@
         <v>147</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>148</v>
@@ -2194,38 +2197,38 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D86" s="4">
+      <c r="D86" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D86" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}"/>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D24 A26:D86">
+  <conditionalFormatting sqref="A2:D85">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:D25">
+  <conditionalFormatting sqref="A86:D86">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A25))&gt;0</formula>
+      <formula>LEN(TRIM(A86))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D80:D86 D57:D78 D45:D55 D26:D43 D6:D24" numberStoredAsText="1"/>
+    <ignoredError sqref="D80:D85 D57:D78 D45:D55 D26:D43 D6:D24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B65F6CC-D141-4942-BE5C-E9C3A451ACAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9C66B9-A231-4093-8777-1369793F9114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -257,12 +257,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -543,6 +537,12 @@
   </si>
   <si>
     <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>S050019</t>
   </si>
 </sst>
 </file>
@@ -993,9 +993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:D86"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1010,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1021,13 +1019,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1035,16 +1033,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1052,7 +1050,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -1066,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1077,27 +1075,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" s="4">
         <v>831</v>
@@ -1108,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1122,7 +1120,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1136,7 +1134,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -1150,7 +1148,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1164,7 +1162,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1175,13 +1173,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="4">
         <v>58</v>
@@ -1192,7 +1190,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -1206,7 +1204,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -1217,16 +1215,16 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1234,7 +1232,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1248,7 +1246,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1259,10 +1257,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
@@ -1276,7 +1274,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1287,16 +1285,16 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1304,7 +1302,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>26</v>
@@ -1318,7 +1316,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>28</v>
@@ -1329,10 +1327,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>28</v>
@@ -1343,13 +1341,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1360,7 +1358,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1371,13 +1369,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1388,7 +1386,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
@@ -1399,16 +1397,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,7 +1414,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>34</v>
@@ -1430,7 +1428,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1441,30 +1439,30 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1472,7 +1470,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>38</v>
@@ -1486,7 +1484,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>40</v>
@@ -1500,7 +1498,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>42</v>
@@ -1514,7 +1512,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>42</v>
@@ -1528,7 +1526,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>42</v>
@@ -1542,7 +1540,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1553,83 +1551,83 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="D40" s="4">
-        <v>471</v>
+        <v>750</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="D41" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D42" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>109</v>
+        <v>47</v>
+      </c>
+      <c r="D43" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1637,27 +1635,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D46" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -1665,209 +1663,209 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D49" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D51" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D52" s="4">
-        <v>2</v>
+        <v>745</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>129</v>
+      <c r="D53" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="4">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>109</v>
+        <v>66</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="4">
-        <v>211</v>
+        <v>159</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>109</v>
+        <v>68</v>
+      </c>
+      <c r="D58" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="4">
-        <v>820</v>
+        <v>131</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D60" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D61" s="4">
-        <v>750</v>
+        <v>819</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D62" s="4">
         <v>553</v>
@@ -1875,13 +1873,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D63" s="4">
         <v>395</v>
@@ -1889,13 +1887,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D64" s="4">
         <v>86</v>
@@ -1903,13 +1901,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D65" s="4">
         <v>87</v>
@@ -1917,13 +1915,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D66" s="4">
         <v>88</v>
@@ -1931,13 +1929,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D67" s="4">
         <v>55</v>
@@ -1945,13 +1943,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D68" s="4">
         <v>54</v>
@@ -1959,13 +1957,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D69" s="4">
         <v>994</v>
@@ -1973,13 +1971,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D70" s="4">
         <v>695</v>
@@ -1987,27 +1985,27 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2015,41 +2013,41 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D75" s="4">
         <v>107</v>
@@ -2057,13 +2055,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D76" s="4">
         <v>170</v>
@@ -2071,13 +2069,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D77" s="4">
         <v>163</v>
@@ -2085,13 +2083,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D78" s="4">
         <v>799</v>
@@ -2099,13 +2097,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D79" s="4">
         <v>1127</v>
@@ -2113,13 +2111,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D80" s="4">
         <v>569</v>
@@ -2127,13 +2125,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D81" s="4">
         <v>762</v>
@@ -2141,13 +2139,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D82" s="4">
         <v>211</v>
@@ -2155,80 +2153,81 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D86" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}"/>
+  <autoFilter ref="A1:D86" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D86">
+      <sortCondition ref="A1:A86"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D85">
+  <conditionalFormatting sqref="A2:D60 A62:D86">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A86:D86">
+  <conditionalFormatting sqref="A61:D61">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A86))&gt;0</formula>
+      <formula>LEN(TRIM(A61))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="D80:D85 D57:D78 D45:D55 D26:D43 D6:D24" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9C66B9-A231-4093-8777-1369793F9114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992461E2-A957-4E87-8EFC-44F39AFF9912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -152,9 +152,6 @@
     <t>S050018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -543,6 +540,9 @@
   </si>
   <si>
     <t>S050019</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -993,7 +993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:D34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1008,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1019,13 +1021,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1033,16 +1035,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1050,7 +1052,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -1064,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1075,27 +1077,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D7" s="4">
         <v>831</v>
@@ -1106,7 +1108,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1120,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1134,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -1148,7 +1150,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1162,7 +1164,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1173,13 +1175,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D13" s="4">
         <v>58</v>
@@ -1190,7 +1192,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -1204,7 +1206,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -1215,16 +1217,16 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1232,7 +1234,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1246,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1257,10 +1259,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
@@ -1274,7 +1276,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1285,16 +1287,16 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1302,7 +1304,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>26</v>
@@ -1316,7 +1318,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>28</v>
@@ -1327,10 +1329,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>28</v>
@@ -1341,13 +1343,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1358,7 +1360,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1369,13 +1371,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1386,7 +1388,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
@@ -1397,16 +1399,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1414,7 +1416,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>34</v>
@@ -1428,7 +1430,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1439,55 +1441,55 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1495,13 +1497,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D36" s="4">
         <v>899</v>
@@ -1509,13 +1511,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="4">
         <v>896</v>
@@ -1523,13 +1525,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="4">
         <v>900</v>
@@ -1537,13 +1539,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="4">
         <v>898</v>
@@ -1551,13 +1553,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="D40" s="4">
         <v>750</v>
@@ -1565,13 +1567,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D41" s="4">
         <v>471</v>
@@ -1579,13 +1581,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D42" s="4">
         <v>166</v>
@@ -1593,13 +1595,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="4">
         <v>167</v>
@@ -1607,27 +1609,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1635,13 +1637,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -1649,13 +1651,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -1663,13 +1665,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D48" s="4">
         <v>80</v>
@@ -1677,13 +1679,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1691,13 +1693,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D50" s="4">
         <v>40</v>
@@ -1705,13 +1707,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1719,13 +1721,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D52" s="4">
         <v>745</v>
@@ -1733,13 +1735,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D53" s="4">
         <v>2</v>
@@ -1747,41 +1749,41 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1789,27 +1791,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D57" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D58" s="4">
         <v>211</v>
@@ -1817,27 +1819,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="D59" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D60" s="4">
         <v>820</v>
@@ -1845,13 +1847,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D61" s="4">
         <v>819</v>
@@ -1859,13 +1861,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D62" s="4">
         <v>553</v>
@@ -1873,13 +1875,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D63" s="4">
         <v>395</v>
@@ -1887,13 +1889,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D64" s="4">
         <v>86</v>
@@ -1901,13 +1903,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" s="4">
         <v>87</v>
@@ -1915,13 +1917,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D66" s="4">
         <v>88</v>
@@ -1929,13 +1931,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D67" s="4">
         <v>55</v>
@@ -1943,13 +1945,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D68" s="4">
         <v>54</v>
@@ -1957,13 +1959,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D69" s="4">
         <v>994</v>
@@ -1971,13 +1973,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D70" s="4">
         <v>695</v>
@@ -1985,27 +1987,27 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D71" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2013,41 +2015,41 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="D74" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D75" s="4">
         <v>107</v>
@@ -2055,13 +2057,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D76" s="4">
         <v>170</v>
@@ -2069,13 +2071,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D77" s="4">
         <v>163</v>
@@ -2083,13 +2085,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D78" s="4">
         <v>799</v>
@@ -2097,13 +2099,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="4">
         <v>1127</v>
@@ -2111,13 +2113,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D80" s="4">
         <v>569</v>
@@ -2125,13 +2127,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="4">
         <v>762</v>
@@ -2139,13 +2141,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D82" s="4">
         <v>211</v>
@@ -2153,55 +2155,55 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="D83" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D84" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
@@ -2214,18 +2216,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D60 A62:D86">
+  <conditionalFormatting sqref="A2:D33 A35:D86">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:D61">
+  <conditionalFormatting sqref="A34:D34">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A61))&gt;0</formula>
+      <formula>LEN(TRIM(A34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992461E2-A957-4E87-8EFC-44F39AFF9912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFF909F-B390-48BF-AA79-00041B7A52D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -527,9 +527,6 @@
     <t>118</t>
   </si>
   <si>
-    <t>DESODORIZADOR DE AMBIENTE - UNICA</t>
-  </si>
-  <si>
     <t>S010012</t>
   </si>
   <si>
@@ -543,6 +540,9 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>DESODORIZADOR DE AMBIENTE - SPRAY</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D34"/>
+      <selection activeCell="A25" sqref="A25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,16 +1343,16 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>151</v>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D40" s="4">
         <v>750</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>151</v>
@@ -2216,18 +2216,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D33 A35:D86">
+  <conditionalFormatting sqref="A2:D24 A26:D86">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:D34">
+  <conditionalFormatting sqref="A25:D25">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A34))&gt;0</formula>
+      <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFF909F-B390-48BF-AA79-00041B7A52D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0ED414-196B-48D6-B995-C51086862427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="165">
   <si>
     <t>Complemento</t>
   </si>
@@ -134,18 +134,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -383,18 +371,9 @@
     <t>S020089</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - ÚNICA</t>
-  </si>
-  <si>
     <t>S010087</t>
   </si>
   <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>ENVELOPE A4 - OURO - OURO</t>
   </si>
   <si>
@@ -543,6 +522,18 @@
   </si>
   <si>
     <t>DESODORIZADOR DE AMBIENTE - SPRAY</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -994,7 +985,7 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D25"/>
+      <selection activeCell="A27" sqref="A27:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1021,13 +1012,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1035,16 +1026,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1052,7 +1043,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -1066,7 +1057,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1077,27 +1068,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D7" s="4">
         <v>831</v>
@@ -1108,7 +1099,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1122,7 +1113,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1136,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -1150,7 +1141,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1164,7 +1155,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1175,13 +1166,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D13" s="4">
         <v>58</v>
@@ -1192,7 +1183,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -1206,7 +1197,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -1217,16 +1208,16 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1234,7 +1225,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1248,7 +1239,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1259,10 +1250,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
@@ -1276,7 +1267,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1287,16 +1278,16 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1304,7 +1295,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>26</v>
@@ -1318,7 +1309,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>28</v>
@@ -1329,10 +1320,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>28</v>
@@ -1343,13 +1334,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D25" s="4">
         <v>1160</v>
@@ -1360,7 +1351,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1371,69 +1362,69 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1178</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1441,41 +1432,41 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D34" s="4">
         <v>1159</v>
@@ -1483,13 +1474,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1497,13 +1488,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D36" s="4">
         <v>899</v>
@@ -1511,13 +1502,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D37" s="4">
         <v>896</v>
@@ -1525,13 +1516,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D38" s="4">
         <v>900</v>
@@ -1539,13 +1530,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D39" s="4">
         <v>898</v>
@@ -1553,13 +1544,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D40" s="4">
         <v>750</v>
@@ -1567,13 +1558,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D41" s="4">
         <v>471</v>
@@ -1581,13 +1572,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D42" s="4">
         <v>166</v>
@@ -1595,13 +1586,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D43" s="4">
         <v>167</v>
@@ -1609,27 +1600,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1637,13 +1628,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -1651,13 +1642,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -1665,13 +1656,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D48" s="4">
         <v>80</v>
@@ -1679,13 +1670,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1693,13 +1684,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D50" s="4">
         <v>40</v>
@@ -1707,13 +1698,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1721,13 +1712,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D52" s="4">
         <v>745</v>
@@ -1735,13 +1726,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D53" s="4">
         <v>2</v>
@@ -1749,41 +1740,41 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1791,27 +1782,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="D57" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D58" s="4">
         <v>211</v>
@@ -1819,27 +1810,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D60" s="4">
         <v>820</v>
@@ -1847,13 +1838,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D61" s="4">
         <v>819</v>
@@ -1861,13 +1852,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D62" s="4">
         <v>553</v>
@@ -1875,13 +1866,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D63" s="4">
         <v>395</v>
@@ -1889,13 +1880,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D64" s="4">
         <v>86</v>
@@ -1903,13 +1894,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D65" s="4">
         <v>87</v>
@@ -1917,13 +1908,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D66" s="4">
         <v>88</v>
@@ -1931,13 +1922,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D67" s="4">
         <v>55</v>
@@ -1945,13 +1936,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D68" s="4">
         <v>54</v>
@@ -1959,13 +1950,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D69" s="4">
         <v>994</v>
@@ -1973,13 +1964,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D70" s="4">
         <v>695</v>
@@ -1987,27 +1978,27 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2015,41 +2006,41 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D75" s="4">
         <v>107</v>
@@ -2057,13 +2048,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D76" s="4">
         <v>170</v>
@@ -2071,13 +2062,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D77" s="4">
         <v>163</v>
@@ -2085,13 +2076,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D78" s="4">
         <v>799</v>
@@ -2099,13 +2090,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D79" s="4">
         <v>1127</v>
@@ -2113,13 +2104,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D80" s="4">
         <v>569</v>
@@ -2127,13 +2118,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D81" s="4">
         <v>762</v>
@@ -2141,13 +2132,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D82" s="4">
         <v>211</v>
@@ -2155,55 +2146,55 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
@@ -2216,18 +2207,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D24 A26:D86">
+  <conditionalFormatting sqref="A2:D26 A31:D86">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:D25">
+  <conditionalFormatting sqref="A27:D30">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A25))&gt;0</formula>
+      <formula>LEN(TRIM(A27))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0ED414-196B-48D6-B995-C51086862427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC29389E-FBE1-495E-A18A-0BC4C9A80938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="165">
   <si>
     <t>Complemento</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Derivação</t>
   </si>
   <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
-  <si>
     <t>S010004</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -221,9 +215,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010032</t>
   </si>
   <si>
@@ -407,9 +398,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -534,6 +522,18 @@
   </si>
   <si>
     <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - UNICA</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,52 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -984,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D30"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1012,13 +1057,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1026,27 +1071,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1054,13 +1099,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D5" s="4">
         <v>103</v>
@@ -1068,27 +1113,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D7" s="4">
         <v>831</v>
@@ -1096,13 +1141,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D8" s="4">
         <v>809</v>
@@ -1110,13 +1155,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D9" s="4">
         <v>1046</v>
@@ -1124,13 +1169,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D10" s="4">
         <v>103</v>
@@ -1138,13 +1183,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="4">
         <v>33</v>
@@ -1152,13 +1197,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D12" s="4">
         <v>31</v>
@@ -1166,13 +1211,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D13" s="4">
         <v>58</v>
@@ -1180,13 +1225,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D14" s="4">
         <v>20</v>
@@ -1194,13 +1239,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1208,27 +1253,27 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
@@ -1236,13 +1281,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
@@ -1250,13 +1295,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4">
         <v>4</v>
@@ -1264,13 +1309,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1278,27 +1323,27 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D22" s="4">
         <v>52</v>
@@ -1306,13 +1351,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D23" s="4">
         <v>101</v>
@@ -1320,13 +1365,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="4">
         <v>100</v>
@@ -1334,13 +1379,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D25" s="4">
         <v>1160</v>
@@ -1348,13 +1393,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D26" s="4">
         <v>103</v>
@@ -1362,13 +1407,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D27" s="4">
         <v>1176</v>
@@ -1376,13 +1421,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D28" s="4">
         <v>1177</v>
@@ -1390,13 +1435,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D29" s="4">
         <v>1178</v>
@@ -1404,13 +1449,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D30" s="4">
         <v>1179</v>
@@ -1418,13 +1463,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1432,41 +1477,41 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="4">
         <v>1159</v>
@@ -1474,13 +1519,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1488,13 +1533,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D36" s="4">
         <v>899</v>
@@ -1502,13 +1547,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="4">
         <v>896</v>
@@ -1516,13 +1561,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="4">
         <v>900</v>
@@ -1530,13 +1575,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="4">
         <v>898</v>
@@ -1544,13 +1589,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D40" s="4">
         <v>750</v>
@@ -1558,13 +1603,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D41" s="4">
         <v>471</v>
@@ -1572,13 +1617,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D42" s="4">
         <v>166</v>
@@ -1586,13 +1631,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="4">
         <v>167</v>
@@ -1600,27 +1645,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1628,27 +1673,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -1656,13 +1701,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D48" s="4">
         <v>80</v>
@@ -1670,13 +1715,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1684,13 +1729,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D50" s="4">
         <v>40</v>
@@ -1698,13 +1743,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1712,13 +1757,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D52" s="4">
         <v>745</v>
@@ -1726,13 +1771,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D53" s="4">
         <v>2</v>
@@ -1740,41 +1785,41 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1782,27 +1827,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D58" s="4">
         <v>211</v>
@@ -1810,27 +1855,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>102</v>
+        <v>119</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D60" s="4">
         <v>820</v>
@@ -1838,13 +1883,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D61" s="4">
         <v>819</v>
@@ -1852,13 +1897,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D62" s="4">
         <v>553</v>
@@ -1866,13 +1911,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D63" s="4">
         <v>395</v>
@@ -1880,13 +1925,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D64" s="4">
         <v>86</v>
@@ -1894,13 +1939,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D65" s="4">
         <v>87</v>
@@ -1908,13 +1953,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D66" s="4">
         <v>88</v>
@@ -1922,13 +1967,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D67" s="4">
         <v>55</v>
@@ -1936,13 +1981,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D68" s="4">
         <v>54</v>
@@ -1950,13 +1995,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D69" s="4">
         <v>994</v>
@@ -1964,13 +2009,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D70" s="4">
         <v>695</v>
@@ -1978,27 +2023,27 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2006,41 +2051,41 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D75" s="4">
         <v>107</v>
@@ -2048,13 +2093,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D76" s="4">
         <v>170</v>
@@ -2062,13 +2107,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D77" s="4">
         <v>163</v>
@@ -2076,13 +2121,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D78" s="4">
         <v>799</v>
@@ -2090,13 +2135,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D79" s="4">
         <v>1127</v>
@@ -2104,13 +2149,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D80" s="4">
         <v>569</v>
@@ -2118,13 +2163,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D81" s="4">
         <v>762</v>
@@ -2132,13 +2177,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D82" s="4">
         <v>211</v>
@@ -2146,55 +2191,55 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
@@ -2207,18 +2252,38 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D26 A31:D86">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D3 A60:D86 A57:D58 A47:D55 A5:D45">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:D30">
+  <conditionalFormatting sqref="A59:D59">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A59))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:D56">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(B56))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A56))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:D46">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A46))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:D4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A27))&gt;0</formula>
+      <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC29389E-FBE1-495E-A18A-0BC4C9A80938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AABEDD-EA99-475E-9968-DE5B0E7E8E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -641,52 +641,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1029,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,7 +1469,7 @@
         <v>32</v>
       </c>
       <c r="D34" s="4">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2252,38 +2207,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="2" priority="16">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D3 A60:D86 A57:D58 A47:D55 A5:D45">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+  <conditionalFormatting sqref="A2:D33 A35:D86">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:D59">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(A59))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56:D56">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(B56))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A56))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:D46">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A46))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:D4">
+  <conditionalFormatting sqref="A34:D34">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A4))&gt;0</formula>
+      <formula>LEN(TRIM(A34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AABEDD-EA99-475E-9968-DE5B0E7E8E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D79C55A-473F-4244-89BE-EC7411D45766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="163">
   <si>
     <t>Complemento</t>
   </si>
@@ -372,12 +372,6 @@
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110018</t>
   </si>
   <si>
     <t>FITA DUPLA FACE - UNICA</t>
@@ -641,16 +635,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -982,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D34"/>
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1015,7 +1000,7 @@
         <v>89</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>90</v>
@@ -1026,24 +1011,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1057,7 +1042,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1071,7 +1056,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>97</v>
@@ -1085,7 +1070,7 @@
         <v>100</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>101</v>
@@ -1099,7 +1084,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1113,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1127,7 +1112,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1141,7 +1126,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1155,7 +1140,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1169,7 +1154,7 @@
         <v>91</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>92</v>
@@ -1183,7 +1168,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
@@ -1197,7 +1182,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -1211,7 +1196,7 @@
         <v>102</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>103</v>
@@ -1225,7 +1210,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1239,7 +1224,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1253,7 +1238,7 @@
         <v>104</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -1267,7 +1252,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1281,7 +1266,7 @@
         <v>105</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>106</v>
@@ -1295,7 +1280,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>25</v>
@@ -1309,7 +1294,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>27</v>
@@ -1323,7 +1308,7 @@
         <v>93</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1334,13 +1319,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D25" s="4">
         <v>1160</v>
@@ -1351,7 +1336,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>29</v>
@@ -1362,10 +1347,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>107</v>
@@ -1376,10 +1361,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>107</v>
@@ -1390,10 +1375,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>107</v>
@@ -1404,10 +1389,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>107</v>
@@ -1421,7 +1406,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>31</v>
@@ -1435,7 +1420,7 @@
         <v>108</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>109</v>
@@ -1446,209 +1431,209 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>99</v>
+        <v>32</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D34" s="4">
-        <v>1162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D35" s="4">
-        <v>1</v>
+        <v>899</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D36" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D38" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="D39" s="4">
-        <v>898</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="D40" s="4">
-        <v>750</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D41" s="4">
-        <v>471</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="4">
-        <v>167</v>
+        <v>112</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>99</v>
+        <v>136</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="D45" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D46" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -1656,86 +1641,86 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D48" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D49" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D50" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D52" s="4">
-        <v>745</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="4">
-        <v>2</v>
+      <c r="D53" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1743,7 +1728,7 @@
         <v>115</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>57</v>
@@ -1754,394 +1739,394 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>118</v>
+        <v>58</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="4">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>99</v>
+        <v>60</v>
+      </c>
+      <c r="D57" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="D58" s="4">
-        <v>211</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="D59" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D60" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D61" s="4">
-        <v>819</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D62" s="4">
-        <v>553</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D63" s="4">
-        <v>395</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D64" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D65" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D66" s="4">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D67" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D68" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D69" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D70" s="4">
-        <v>695</v>
+        <v>121</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>99</v>
+        <v>77</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="4">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="D74" s="4">
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D75" s="4">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D76" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D77" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D78" s="4">
-        <v>799</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D79" s="4">
-        <v>1127</v>
+        <v>569</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D80" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D81" s="4">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D82" s="4">
-        <v>211</v>
+        <v>128</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,7 +2134,7 @@
         <v>129</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>130</v>
@@ -2163,62 +2148,43 @@
         <v>131</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D86" s="6">
+      <c r="D85" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D86" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D86">
-      <sortCondition ref="A1:A86"/>
+  <autoFilter ref="A1:D85" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D85">
+      <sortCondition ref="A1:A85"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D33 A35:D86">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D85">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:D34">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D79C55A-473F-4244-89BE-EC7411D45766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DBD6CA-54C9-4F05-9EF0-DD974980E314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="161">
   <si>
     <t>Complemento</t>
   </si>
@@ -426,12 +426,6 @@
   </si>
   <si>
     <t>S020007</t>
-  </si>
-  <si>
-    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020008</t>
   </si>
   <si>
     <t>TINTA P/ CARIMBO 42 ML - AZUL - AZUL</t>
@@ -967,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1000,7 +994,7 @@
         <v>89</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>90</v>
@@ -1011,24 +1005,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1042,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1056,7 +1050,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>97</v>
@@ -1070,7 +1064,7 @@
         <v>100</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>101</v>
@@ -1084,7 +1078,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1098,7 +1092,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1112,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1126,7 +1120,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1140,7 +1134,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1154,7 +1148,7 @@
         <v>91</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>92</v>
@@ -1168,7 +1162,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
@@ -1182,7 +1176,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -1196,7 +1190,7 @@
         <v>102</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>103</v>
@@ -1210,7 +1204,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1224,7 +1218,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1238,7 +1232,7 @@
         <v>104</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -1252,7 +1246,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1266,7 +1260,7 @@
         <v>105</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>106</v>
@@ -1280,7 +1274,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>25</v>
@@ -1294,7 +1288,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>27</v>
@@ -1308,7 +1302,7 @@
         <v>93</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1319,13 +1313,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D25" s="4">
         <v>1160</v>
@@ -1336,7 +1330,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>29</v>
@@ -1347,10 +1341,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>107</v>
@@ -1361,10 +1355,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>107</v>
@@ -1375,10 +1369,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>107</v>
@@ -1389,10 +1383,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>107</v>
@@ -1406,7 +1400,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>31</v>
@@ -1420,7 +1414,7 @@
         <v>108</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>109</v>
@@ -1431,10 +1425,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>32</v>
@@ -1448,7 +1442,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1462,7 +1456,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>36</v>
@@ -1476,7 +1470,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1490,7 +1484,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>36</v>
@@ -1504,7 +1498,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>36</v>
@@ -1515,13 +1509,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1532,7 +1526,7 @@
         <v>94</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>95</v>
@@ -1546,7 +1540,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>41</v>
@@ -1560,7 +1554,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>41</v>
@@ -1574,7 +1568,7 @@
         <v>111</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>112</v>
@@ -1585,13 +1579,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1599,10 +1593,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>43</v>
@@ -1616,7 +1610,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>45</v>
@@ -1630,7 +1624,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>47</v>
@@ -1644,7 +1638,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>49</v>
@@ -1658,7 +1652,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>51</v>
@@ -1672,7 +1666,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>53</v>
@@ -1686,7 +1680,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>55</v>
@@ -1700,7 +1694,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>57</v>
@@ -1714,7 +1708,7 @@
         <v>113</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>57</v>
@@ -1728,7 +1722,7 @@
         <v>115</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>57</v>
@@ -1739,10 +1733,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>58</v>
@@ -1753,13 +1747,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>99</v>
@@ -1770,7 +1764,7 @@
         <v>59</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>60</v>
@@ -1781,10 +1775,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>117</v>
@@ -1798,7 +1792,7 @@
         <v>61</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>62</v>
@@ -1812,7 +1806,7 @@
         <v>63</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>62</v>
@@ -1826,7 +1820,7 @@
         <v>64</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>65</v>
@@ -1840,7 +1834,7 @@
         <v>66</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>67</v>
@@ -1854,7 +1848,7 @@
         <v>68</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>69</v>
@@ -1868,7 +1862,7 @@
         <v>70</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>69</v>
@@ -1882,7 +1876,7 @@
         <v>71</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>69</v>
@@ -1896,7 +1890,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>72</v>
@@ -1910,7 +1904,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>72</v>
@@ -1924,7 +1918,7 @@
         <v>75</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>74</v>
@@ -1938,7 +1932,7 @@
         <v>73</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>74</v>
@@ -1952,7 +1946,7 @@
         <v>120</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>121</v>
@@ -1966,7 +1960,7 @@
         <v>76</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>77</v>
@@ -1980,7 +1974,7 @@
         <v>122</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>123</v>
@@ -1994,7 +1988,7 @@
         <v>125</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>126</v>
@@ -2008,7 +2002,7 @@
         <v>78</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>79</v>
@@ -2022,7 +2016,7 @@
         <v>80</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>81</v>
@@ -2036,7 +2030,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>81</v>
@@ -2050,7 +2044,7 @@
         <v>83</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>81</v>
@@ -2061,10 +2055,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>84</v>
@@ -2078,7 +2072,7 @@
         <v>85</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>84</v>
@@ -2092,7 +2086,7 @@
         <v>86</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>84</v>
@@ -2106,7 +2100,7 @@
         <v>87</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>88</v>
@@ -2120,7 +2114,7 @@
         <v>127</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>128</v>
@@ -2134,47 +2128,33 @@
         <v>129</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D85" s="6">
+      <c r="D84" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D85" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D85">
-      <sortCondition ref="A1:A85"/>
+  <autoFilter ref="A1:D84" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D84">
+      <sortCondition ref="A1:A84"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2182,7 +2162,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D85">
+  <conditionalFormatting sqref="A2:D84">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DBD6CA-54C9-4F05-9EF0-DD974980E314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D7596B-D0A3-4753-BFAB-14E554E63674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -215,9 +215,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -515,13 +512,16 @@
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA</t>
-  </si>
-  <si>
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
     <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -629,7 +629,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -963,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:XFD83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -991,13 +1000,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1005,24 +1014,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1036,7 +1045,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1047,27 +1056,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D7" s="4">
         <v>831</v>
@@ -1078,7 +1087,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1092,7 +1101,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1106,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1120,7 +1129,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1134,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1145,13 +1154,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D13" s="4">
         <v>58</v>
@@ -1162,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
@@ -1176,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -1187,16 +1196,16 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1204,7 +1213,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1218,7 +1227,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1229,10 +1238,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -1246,7 +1255,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1257,16 +1266,16 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1274,7 +1283,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>25</v>
@@ -1288,7 +1297,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>27</v>
@@ -1299,10 +1308,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1313,13 +1322,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="4">
         <v>1160</v>
@@ -1330,7 +1339,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>29</v>
@@ -1341,13 +1350,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="4">
         <v>1176</v>
@@ -1355,13 +1364,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D28" s="4">
         <v>1177</v>
@@ -1369,13 +1378,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" s="4">
         <v>1178</v>
@@ -1383,13 +1392,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" s="4">
         <v>1179</v>
@@ -1400,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>31</v>
@@ -1411,24 +1420,24 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>32</v>
@@ -1442,7 +1451,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1456,7 +1465,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>36</v>
@@ -1470,7 +1479,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1484,7 +1493,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>36</v>
@@ -1498,7 +1507,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>36</v>
@@ -1509,13 +1518,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1523,13 +1532,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D40" s="4">
         <v>471</v>
@@ -1540,7 +1549,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>41</v>
@@ -1554,7 +1563,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>41</v>
@@ -1565,27 +1574,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1593,10 +1602,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>43</v>
@@ -1610,7 +1619,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>45</v>
@@ -1624,7 +1633,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>47</v>
@@ -1638,7 +1647,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>49</v>
@@ -1652,7 +1661,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>51</v>
@@ -1666,7 +1675,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>53</v>
@@ -1680,7 +1689,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>55</v>
@@ -1694,7 +1703,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>57</v>
@@ -1705,69 +1714,69 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="D55" s="4">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="D56" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D57" s="4">
         <v>211</v>
@@ -1775,13 +1784,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D58" s="4">
         <v>1167</v>
@@ -1789,13 +1798,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D59" s="4">
         <v>820</v>
@@ -1803,13 +1812,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D60" s="4">
         <v>819</v>
@@ -1817,13 +1826,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D61" s="4">
         <v>553</v>
@@ -1831,13 +1840,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D62" s="4">
         <v>395</v>
@@ -1845,13 +1854,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D63" s="4">
         <v>86</v>
@@ -1859,13 +1868,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D64" s="4">
         <v>87</v>
@@ -1873,13 +1882,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D65" s="4">
         <v>88</v>
@@ -1887,13 +1896,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D66" s="4">
         <v>55</v>
@@ -1901,13 +1910,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D67" s="4">
         <v>54</v>
@@ -1915,13 +1924,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D68" s="4">
         <v>994</v>
@@ -1929,13 +1938,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D69" s="4">
         <v>695</v>
@@ -1943,27 +1952,27 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="D70" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -1971,41 +1980,41 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D74" s="4">
         <v>107</v>
@@ -2013,13 +2022,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D75" s="4">
         <v>170</v>
@@ -2027,13 +2036,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D76" s="4">
         <v>163</v>
@@ -2041,13 +2050,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D77" s="4">
         <v>799</v>
@@ -2055,13 +2064,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" s="4">
         <v>1127</v>
@@ -2069,13 +2078,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D79" s="4">
         <v>569</v>
@@ -2083,13 +2092,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D80" s="4">
         <v>762</v>
@@ -2097,13 +2106,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D81" s="4">
         <v>211</v>
@@ -2111,41 +2120,41 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D82" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D83" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D84" s="6">
         <v>1</v>
@@ -2158,13 +2167,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="16">
+    <cfRule type="expression" dxfId="2" priority="17">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D84">
+  <conditionalFormatting sqref="A2:D54 A56:D84">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:D55">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A55))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D7596B-D0A3-4753-BFAB-14E554E63674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D357D7E-AE32-4550-8AFF-D1CB3EA7CF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="157">
   <si>
     <t>Complemento</t>
   </si>
@@ -53,12 +53,6 @@
     <t>S010004</t>
   </si>
   <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
-  </si>
-  <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
   </si>
   <si>
@@ -336,12 +330,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>BISCOITO - ROSQUINHA</t>
-  </si>
-  <si>
-    <t>S030006</t>
   </si>
   <si>
     <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
@@ -629,16 +617,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -970,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:D55"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" activeCellId="1" sqref="A5:XFD5 A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1000,13 +979,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1014,24 +993,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1042,72 +1021,72 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>103</v>
+        <v>94</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>97</v>
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>809</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4">
-        <v>831</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4">
-        <v>809</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4">
-        <v>1046</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1115,69 +1094,69 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="4">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="D11" s="4">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="D13" s="4">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="4">
-        <v>20</v>
+        <v>98</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,69 +1164,69 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>98</v>
+        <v>18</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D18" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="4">
-        <v>4</v>
+        <v>101</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1255,223 +1234,223 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>98</v>
+        <v>25</v>
+      </c>
+      <c r="D21" s="4">
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="4">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="D23" s="4">
-        <v>101</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="4">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="D25" s="4">
-        <v>1160</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="D26" s="4">
-        <v>103</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D27" s="4">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D28" s="4">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="D29" s="4">
-        <v>1178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1179</v>
+        <v>104</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D31" s="4">
-        <v>1</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>109</v>
+        <v>32</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D33" s="4">
-        <v>1162</v>
+        <v>899</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>896</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35" s="4">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1479,178 +1458,178 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36" s="4">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="D37" s="4">
-        <v>900</v>
+        <v>750</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="D38" s="4">
-        <v>898</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="D39" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="D40" s="4">
-        <v>471</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="4">
-        <v>166</v>
+        <v>107</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="D42" s="4">
-        <v>167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>98</v>
+        <v>41</v>
+      </c>
+      <c r="D43" s="4">
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="D44" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D45" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D46" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D47" s="4">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1658,114 +1637,114 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D49" s="4">
-        <v>40</v>
+        <v>745</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="4">
-        <v>745</v>
+      <c r="D51" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="4">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>113</v>
+        <v>156</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="D55" s="4">
-        <v>1181</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>98</v>
+        <v>112</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1773,279 +1752,279 @@
         <v>58</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="4">
-        <v>211</v>
+        <v>820</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="D58" s="4">
-        <v>1167</v>
+        <v>819</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D59" s="4">
-        <v>820</v>
+        <v>553</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D60" s="4">
-        <v>819</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D61" s="4">
-        <v>553</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D62" s="4">
-        <v>395</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D63" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="D64" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D65" s="4">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D66" s="4">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D67" s="4">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" s="4">
-        <v>994</v>
+        <v>116</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D69" s="4">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" s="4">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>123</v>
+        <v>76</v>
+      </c>
+      <c r="D72" s="4">
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
+      </c>
+      <c r="D73" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="4">
-        <v>107</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D75" s="4">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D76" s="4">
-        <v>163</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2053,27 +2032,27 @@
         <v>82</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D77" s="4">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D78" s="4">
-        <v>1127</v>
+        <v>762</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2081,104 +2060,71 @@
         <v>84</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D79" s="4">
-        <v>569</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80" s="4">
-        <v>762</v>
+        <v>123</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D81" s="4">
-        <v>211</v>
+        <v>125</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D84" s="6">
+      <c r="D82" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D84" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D84">
-      <sortCondition ref="A1:A84"/>
+  <autoFilter ref="A1:D82" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D82">
+      <sortCondition ref="A1:A82"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="17">
+    <cfRule type="expression" dxfId="1" priority="17">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D54 A56:D84">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D82">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:D55">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A55))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D357D7E-AE32-4550-8AFF-D1CB3EA7CF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624A8F09-3B87-4C3D-B83C-3047B2E51DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="155">
   <si>
     <t>Complemento</t>
   </si>
@@ -240,12 +240,6 @@
   </si>
   <si>
     <t>S020025</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
   </si>
   <si>
     <t>S200035</t>
@@ -949,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" activeCellId="1" sqref="A5:XFD5 A7:XFD7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -979,13 +973,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -993,24 +987,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1021,16 +1015,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1052,7 +1046,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -1066,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1080,7 +1074,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>11</v>
@@ -1094,7 +1088,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1105,13 +1099,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4">
         <v>58</v>
@@ -1122,7 +1116,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1136,7 +1130,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1147,16 +1141,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,7 +1158,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -1178,7 +1172,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -1189,10 +1183,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1206,7 +1200,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1217,16 +1211,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1234,7 +1228,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1248,7 +1242,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1259,10 +1253,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>25</v>
@@ -1273,13 +1267,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D23" s="4">
         <v>1160</v>
@@ -1290,7 +1284,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1301,13 +1295,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D25" s="4">
         <v>1176</v>
@@ -1315,13 +1309,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D26" s="4">
         <v>1177</v>
@@ -1329,13 +1323,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D27" s="4">
         <v>1178</v>
@@ -1343,13 +1337,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D28" s="4">
         <v>1179</v>
@@ -1360,7 +1354,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1371,24 +1365,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>30</v>
@@ -1402,7 +1396,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
@@ -1416,7 +1410,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>34</v>
@@ -1430,7 +1424,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1444,7 +1438,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>34</v>
@@ -1458,7 +1452,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>34</v>
@@ -1469,13 +1463,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D37" s="4">
         <v>750</v>
@@ -1483,13 +1477,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D38" s="4">
         <v>471</v>
@@ -1500,7 +1494,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>39</v>
@@ -1514,7 +1508,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>39</v>
@@ -1525,27 +1519,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1553,10 +1547,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>41</v>
@@ -1570,7 +1564,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
@@ -1584,7 +1578,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1598,7 +1592,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
@@ -1612,7 +1606,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>49</v>
@@ -1626,7 +1620,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>51</v>
@@ -1640,7 +1634,7 @@
         <v>52</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>53</v>
@@ -1654,7 +1648,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>55</v>
@@ -1665,41 +1659,41 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="4">
         <v>1181</v>
@@ -1707,16 +1701,16 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1724,7 +1718,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>57</v>
@@ -1735,13 +1729,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D56" s="4">
         <v>1167</v>
@@ -1752,7 +1746,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>59</v>
@@ -1766,7 +1760,7 @@
         <v>60</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>59</v>
@@ -1780,7 +1774,7 @@
         <v>61</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>62</v>
@@ -1794,7 +1788,7 @@
         <v>63</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>64</v>
@@ -1808,7 +1802,7 @@
         <v>65</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>66</v>
@@ -1819,86 +1813,86 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="D62" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D63" s="4">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D64" s="4">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D65" s="4">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="4">
-        <v>994</v>
+        <v>114</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D67" s="4">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1906,97 +1900,97 @@
         <v>115</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>116</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D69" s="4">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>119</v>
+        <v>74</v>
+      </c>
+      <c r="D70" s="4">
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="D71" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D72" s="4">
-        <v>107</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D73" s="4">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="D74" s="4">
-        <v>163</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2004,27 +1998,27 @@
         <v>80</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D75" s="4">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D76" s="4">
-        <v>1127</v>
+        <v>762</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2032,89 +2026,61 @@
         <v>82</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D77" s="4">
-        <v>569</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D78" s="4">
-        <v>762</v>
+        <v>121</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D79" s="4">
-        <v>211</v>
+        <v>123</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D82" s="6">
+      <c r="D80" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D82" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D82">
-      <sortCondition ref="A1:A82"/>
+  <autoFilter ref="A1:D80" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D80">
+      <sortCondition ref="A1:A80"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2122,7 +2088,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D82">
+  <conditionalFormatting sqref="A2:D80">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624A8F09-3B87-4C3D-B83C-3047B2E51DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CF7DB3-0F85-4C93-8BA9-53406B2E6EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="154">
   <si>
     <t>Complemento</t>
   </si>
@@ -224,9 +224,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -437,9 +434,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>PC C/100</t>
   </si>
   <si>
@@ -504,6 +498,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
   </si>
 </sst>
 </file>
@@ -611,7 +608,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -946,7 +952,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
+      <selection activeCell="A59" sqref="A59:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -973,13 +979,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -987,24 +993,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1015,16 +1021,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1032,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1046,7 +1052,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -1060,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1074,7 +1080,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>11</v>
@@ -1088,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1099,13 +1105,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D11" s="4">
         <v>58</v>
@@ -1116,7 +1122,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1130,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1141,16 +1147,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,7 +1164,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -1172,7 +1178,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -1183,10 +1189,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1200,7 +1206,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1211,16 +1217,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1228,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1242,7 +1248,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1253,10 +1259,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>25</v>
@@ -1267,13 +1273,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D23" s="4">
         <v>1160</v>
@@ -1284,7 +1290,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1295,13 +1301,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" s="4">
         <v>1176</v>
@@ -1309,13 +1315,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" s="4">
         <v>1177</v>
@@ -1323,13 +1329,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" s="4">
         <v>1178</v>
@@ -1337,13 +1343,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="4">
         <v>1179</v>
@@ -1354,7 +1360,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1365,24 +1371,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>30</v>
@@ -1396,7 +1402,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
@@ -1410,7 +1416,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>34</v>
@@ -1424,7 +1430,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1438,7 +1444,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>34</v>
@@ -1452,7 +1458,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>34</v>
@@ -1463,13 +1469,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D37" s="4">
         <v>750</v>
@@ -1477,13 +1483,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D38" s="4">
         <v>471</v>
@@ -1494,7 +1500,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>39</v>
@@ -1508,7 +1514,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>39</v>
@@ -1519,27 +1525,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1547,10 +1553,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>41</v>
@@ -1564,7 +1570,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
@@ -1578,7 +1584,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1592,7 +1598,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
@@ -1606,7 +1612,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>49</v>
@@ -1620,7 +1626,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>51</v>
@@ -1634,7 +1640,7 @@
         <v>52</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>53</v>
@@ -1648,7 +1654,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>55</v>
@@ -1659,41 +1665,41 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53" s="4">
         <v>1181</v>
@@ -1701,16 +1707,16 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,7 +1724,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>57</v>
@@ -1729,13 +1735,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D56" s="4">
         <v>1167</v>
@@ -1746,7 +1752,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>59</v>
@@ -1760,7 +1766,7 @@
         <v>60</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>59</v>
@@ -1771,27 +1777,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="D59" s="4">
-        <v>553</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D60" s="4">
         <v>395</v>
@@ -1799,13 +1805,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D61" s="4">
         <v>86</v>
@@ -1813,13 +1819,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D62" s="4">
         <v>55</v>
@@ -1827,13 +1833,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D63" s="4">
         <v>54</v>
@@ -1841,13 +1847,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D64" s="4">
         <v>994</v>
@@ -1855,13 +1861,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D65" s="4">
         <v>695</v>
@@ -1869,27 +1875,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="D66" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -1897,41 +1903,41 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D69" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D70" s="4">
         <v>107</v>
@@ -1939,13 +1945,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D71" s="4">
         <v>170</v>
@@ -1953,13 +1959,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D72" s="4">
         <v>163</v>
@@ -1967,13 +1973,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D73" s="4">
         <v>799</v>
@@ -1981,13 +1987,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D74" s="4">
         <v>1127</v>
@@ -1995,13 +2001,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D75" s="4">
         <v>569</v>
@@ -2009,13 +2015,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D76" s="4">
         <v>762</v>
@@ -2023,13 +2029,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D77" s="4">
         <v>211</v>
@@ -2037,41 +2043,41 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="D78" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="D79" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D80" s="6">
         <v>1</v>
@@ -2084,13 +2090,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="2" priority="18">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D80">
+  <conditionalFormatting sqref="A2:D58 A60:D80">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:D59">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A59))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CF7DB3-0F85-4C93-8BA9-53406B2E6EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00C687B-C601-47A8-B3C0-5484099C11E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -173,9 +173,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -501,6 +498,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
   </si>
 </sst>
 </file>
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:D59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -979,13 +979,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -993,24 +993,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1021,16 +1021,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1052,7 +1052,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>11</v>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D11" s="4">
         <v>58</v>
@@ -1122,7 +1122,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1136,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1147,16 +1147,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -1178,7 +1178,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1206,7 +1206,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1248,7 +1248,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>25</v>
@@ -1273,13 +1273,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D23" s="4">
         <v>1160</v>
@@ -1290,7 +1290,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1301,13 +1301,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="4">
         <v>1176</v>
@@ -1315,13 +1315,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" s="4">
         <v>1177</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="4">
         <v>1178</v>
@@ -1343,13 +1343,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="4">
         <v>1179</v>
@@ -1360,7 +1360,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1371,24 +1371,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>30</v>
@@ -1402,7 +1402,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
@@ -1416,7 +1416,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>34</v>
@@ -1430,7 +1430,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1444,7 +1444,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>34</v>
@@ -1458,7 +1458,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>34</v>
@@ -1469,13 +1469,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D37" s="4">
         <v>750</v>
@@ -1483,13 +1483,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D38" s="4">
         <v>471</v>
@@ -1500,7 +1500,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>39</v>
@@ -1514,7 +1514,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>39</v>
@@ -1525,27 +1525,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1553,10 +1553,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>41</v>
@@ -1570,7 +1570,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
@@ -1581,27 +1581,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D45" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -1609,13 +1609,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D47" s="4">
         <v>40</v>
@@ -1623,13 +1623,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D49" s="4">
         <v>745</v>
@@ -1651,13 +1651,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D50" s="4">
         <v>2</v>
@@ -1665,41 +1665,41 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D53" s="4">
         <v>1181</v>
@@ -1707,27 +1707,27 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="D54" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D55" s="4">
         <v>211</v>
@@ -1735,13 +1735,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D56" s="4">
         <v>1167</v>
@@ -1749,13 +1749,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D57" s="4">
         <v>820</v>
@@ -1763,13 +1763,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D58" s="4">
         <v>819</v>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D59" s="4">
         <v>1394</v>
@@ -1791,13 +1791,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D60" s="4">
         <v>395</v>
@@ -1805,13 +1805,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D61" s="4">
         <v>86</v>
@@ -1819,13 +1819,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D62" s="4">
         <v>55</v>
@@ -1833,13 +1833,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D63" s="4">
         <v>54</v>
@@ -1847,13 +1847,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D64" s="4">
         <v>994</v>
@@ -1861,13 +1861,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D65" s="4">
         <v>695</v>
@@ -1875,27 +1875,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D66" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -1903,41 +1903,41 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D69" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D70" s="4">
         <v>107</v>
@@ -1945,13 +1945,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D71" s="4">
         <v>170</v>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D72" s="4">
         <v>163</v>
@@ -1973,13 +1973,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D73" s="4">
         <v>799</v>
@@ -1987,13 +1987,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D74" s="4">
         <v>1127</v>
@@ -2001,13 +2001,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D75" s="4">
         <v>569</v>
@@ -2015,13 +2015,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D76" s="4">
         <v>762</v>
@@ -2029,13 +2029,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D77" s="4">
         <v>211</v>
@@ -2043,41 +2043,41 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D78" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="D79" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D80" s="6">
         <v>1</v>
@@ -2090,18 +2090,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="18">
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D58 A60:D80">
+  <conditionalFormatting sqref="A2:D44 A46:D80">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:D59">
+  <conditionalFormatting sqref="A45:D45">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A59))&gt;0</formula>
+      <formula>LEN(TRIM(A45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00C687B-C601-47A8-B3C0-5484099C11E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A858577-EFE7-42A4-A0FA-6812EED35A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="148">
   <si>
     <t>Complemento</t>
   </si>
@@ -86,9 +86,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
@@ -125,18 +119,12 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -176,9 +164,6 @@
     <t>S020057</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050012</t>
   </si>
   <si>
@@ -188,9 +173,6 @@
     <t>S020062</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -248,9 +230,6 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
@@ -314,24 +293,9 @@
     <t>S020071</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
-    <t>S150295</t>
-  </si>
-  <si>
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHO</t>
   </si>
   <si>
-    <t>CLIPE 6/0 COM 50 UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020089</t>
   </si>
   <si>
@@ -344,27 +308,15 @@
     <t>S020041</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
     <t>MARCADOR QUADRO BRANCO - PRETO - PRETO</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - VERMELHO - VERMELHO</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -374,9 +326,6 @@
     <t>PILHA - AAA</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
@@ -386,18 +335,9 @@
     <t>S020107</t>
   </si>
   <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
@@ -413,9 +353,6 @@
     <t>SACOLA PLASTICA - 25X30</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
     <t>S050008</t>
   </si>
   <si>
@@ -437,9 +374,6 @@
     <t>MIL</t>
   </si>
   <si>
-    <t>MEXEDOR PARA CAFE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S150037</t>
   </si>
   <si>
@@ -449,15 +383,9 @@
     <t>S030004</t>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
     <t>S010012</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>FILME PVC PLASTICO - 300 M</t>
   </si>
   <si>
@@ -501,6 +429,60 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>CLIPE 6/0 - 50 UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>MEXEDOR PARA CAFE - 500 UND</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
 </sst>
 </file>
@@ -608,16 +590,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -951,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:D45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -979,13 +952,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -993,24 +966,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>136</v>
+        <v>113</v>
+      </c>
+      <c r="D3" s="6">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1021,16 +994,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,7 +1011,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1052,7 +1025,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -1066,7 +1039,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1080,7 +1053,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>11</v>
@@ -1094,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1105,13 +1078,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D11" s="4">
         <v>58</v>
@@ -1122,7 +1095,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1133,41 +1106,41 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D13" s="4">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>92</v>
+        <v>132</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1184</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -1175,13 +1148,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
@@ -1189,13 +1162,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4">
         <v>4</v>
@@ -1203,41 +1176,41 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="D19" s="6">
+        <v>916</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4">
         <v>52</v>
@@ -1245,13 +1218,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" s="4">
         <v>101</v>
@@ -1259,13 +1232,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4">
         <v>100</v>
@@ -1273,13 +1246,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D23" s="4">
         <v>1160</v>
@@ -1287,13 +1260,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" s="4">
         <v>103</v>
@@ -1301,13 +1274,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D25" s="4">
         <v>1176</v>
@@ -1315,13 +1288,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D26" s="4">
         <v>1177</v>
@@ -1329,13 +1302,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D27" s="4">
         <v>1178</v>
@@ -1343,13 +1316,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D28" s="4">
         <v>1179</v>
@@ -1357,41 +1330,41 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D29" s="4">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>101</v>
+        <v>88</v>
+      </c>
+      <c r="D30" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D31" s="4">
         <v>1162</v>
@@ -1399,27 +1372,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D32" s="4">
-        <v>1</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D33" s="4">
         <v>899</v>
@@ -1427,13 +1400,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D34" s="4">
         <v>896</v>
@@ -1441,13 +1414,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D35" s="4">
         <v>900</v>
@@ -1455,13 +1428,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D36" s="4">
         <v>898</v>
@@ -1469,13 +1442,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D37" s="4">
         <v>750</v>
@@ -1483,13 +1456,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D38" s="4">
         <v>471</v>
@@ -1497,13 +1470,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D39" s="4">
         <v>166</v>
@@ -1511,13 +1484,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D40" s="4">
         <v>167</v>
@@ -1525,41 +1498,41 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="D41" s="6">
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="D42" s="4">
-        <v>1</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D43" s="4">
         <v>448</v>
@@ -1567,13 +1540,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D44" s="4">
         <v>80</v>
@@ -1581,13 +1554,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D45" s="4">
         <v>1396</v>
@@ -1595,27 +1568,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D47" s="4">
         <v>40</v>
@@ -1623,27 +1596,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D49" s="4">
         <v>745</v>
@@ -1651,13 +1624,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D50" s="4">
         <v>2</v>
@@ -1665,41 +1638,41 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>105</v>
+        <v>48</v>
+      </c>
+      <c r="D51" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>107</v>
+        <v>48</v>
+      </c>
+      <c r="D52" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="D53" s="4">
         <v>1181</v>
@@ -1707,27 +1680,27 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>92</v>
+        <v>111</v>
+      </c>
+      <c r="D54" s="6">
+        <v>874</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D55" s="4">
         <v>211</v>
@@ -1735,13 +1708,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D56" s="4">
         <v>1167</v>
@@ -1749,13 +1722,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D57" s="4">
         <v>820</v>
@@ -1763,13 +1736,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D58" s="4">
         <v>819</v>
@@ -1777,13 +1750,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D59" s="4">
         <v>1394</v>
@@ -1791,13 +1764,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D60" s="4">
         <v>395</v>
@@ -1805,13 +1778,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D61" s="4">
         <v>86</v>
@@ -1819,13 +1792,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D62" s="4">
         <v>55</v>
@@ -1833,13 +1806,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D63" s="4">
         <v>54</v>
@@ -1847,13 +1820,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D64" s="4">
         <v>994</v>
@@ -1861,13 +1834,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D65" s="4">
         <v>695</v>
@@ -1875,69 +1848,69 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="D66" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D67" s="4">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>115</v>
+        <v>97</v>
+      </c>
+      <c r="D68" s="6">
+        <v>574</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
+      </c>
+      <c r="D69" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D70" s="4">
         <v>107</v>
@@ -1945,13 +1918,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D71" s="4">
         <v>170</v>
@@ -1959,13 +1932,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D72" s="4">
         <v>163</v>
@@ -1973,13 +1946,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D73" s="4">
         <v>799</v>
@@ -1987,13 +1960,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D74" s="4">
         <v>1127</v>
@@ -2001,13 +1974,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D75" s="4">
         <v>569</v>
@@ -2015,13 +1988,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D76" s="4">
         <v>762</v>
@@ -2029,13 +2002,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D77" s="4">
         <v>211</v>
@@ -2043,65 +2016,55 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="D78" s="6">
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>91</v>
+        <v>101</v>
+      </c>
+      <c r="D79" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D80" s="6">
-        <v>1</v>
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D80" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D80">
-      <sortCondition ref="A1:A80"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="1" priority="19">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D44 A46:D80">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D80">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:D45">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A858577-EFE7-42A4-A0FA-6812EED35A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF23A8D6-D536-4494-B40B-AD17F6BA48B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>

--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF23A8D6-D536-4494-B40B-AD17F6BA48B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2567021B-B5B1-41CF-AB68-77F6EA9F5139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -925,7 +925,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,7 +1283,7 @@
         <v>86</v>
       </c>
       <c r="D25" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1297,7 +1297,7 @@
         <v>86</v>
       </c>
       <c r="D26" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <v>86</v>
       </c>
       <c r="D27" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
         <v>86</v>
       </c>
       <c r="D28" s="4">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">

--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2567021B-B5B1-41CF-AB68-77F6EA9F5139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1E0D0B-780C-4A19-8562-650D9BDB4EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="150">
   <si>
     <t>Complemento</t>
   </si>
@@ -483,6 +483,12 @@
   </si>
   <si>
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -590,7 +596,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -922,11 +937,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1330,63 +1343,63 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1436</v>
+        <v>88</v>
+      </c>
+      <c r="D29" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="6">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="4">
-        <v>1162</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D32" s="4">
-        <v>1455</v>
+        <v>899</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>106</v>
@@ -1395,12 +1408,12 @@
         <v>30</v>
       </c>
       <c r="D33" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>106</v>
@@ -1409,12 +1422,12 @@
         <v>30</v>
       </c>
       <c r="D34" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>106</v>
@@ -1423,54 +1436,54 @@
         <v>30</v>
       </c>
       <c r="D35" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="D36" s="4">
-        <v>898</v>
+        <v>750</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D37" s="4">
-        <v>750</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D38" s="4">
-        <v>471</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>106</v>
@@ -1479,91 +1492,91 @@
         <v>35</v>
       </c>
       <c r="D39" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="4">
-        <v>167</v>
+        <v>89</v>
+      </c>
+      <c r="D40" s="6">
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="6">
-        <v>272</v>
+        <v>104</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1157</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="D42" s="4">
-        <v>1157</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D43" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D44" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="D45" s="4">
-        <v>1396</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1960,21 +1973,21 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D74" s="4">
-        <v>1127</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>110</v>
@@ -1983,12 +1996,12 @@
         <v>70</v>
       </c>
       <c r="D75" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>110</v>
@@ -1997,74 +2010,98 @@
         <v>70</v>
       </c>
       <c r="D76" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D77" s="4">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" s="6">
-        <v>202</v>
+        <v>74</v>
+      </c>
+      <c r="D78" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D79" s="6">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C80" s="4" t="s">
+      <c r="B81" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D81" s="6">
         <v>1458</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D81" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D81">
+      <sortCondition ref="A1:A81"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="19">
+    <cfRule type="expression" dxfId="2" priority="20">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D80">
+  <conditionalFormatting sqref="A2:D36 A38:D81">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:D37">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A37))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_sservico_csala.xlsx
+++ b/pages/RN_csoservi_sservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1E0D0B-780C-4A19-8562-650D9BDB4EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A57C32-E8BC-428A-AD4D-AFE8466904E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9E1D8D96-C68B-4FFC-ACCD-A0F08BE7685F}"/>
   </bookViews>
@@ -269,15 +269,9 @@
     <t>ACUCAR - 1000G</t>
   </si>
   <si>
-    <t>S030001</t>
-  </si>
-  <si>
     <t>CAFE - 250G - 250G</t>
   </si>
   <si>
-    <t>S030005</t>
-  </si>
-  <si>
     <t>COPO DESCARTAVEL C/100 UND - 50ML - 50ML</t>
   </si>
   <si>
@@ -380,9 +374,6 @@
     <t>ADOÇANTE - 100ML</t>
   </si>
   <si>
-    <t>S030004</t>
-  </si>
-  <si>
     <t>S010012</t>
   </si>
   <si>
@@ -489,6 +480,15 @@
   </si>
   <si>
     <t>S050011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300001 </t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -939,7 +948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3825FF0-805B-45B3-948E-D297E7F805DD}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -954,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -968,10 +979,10 @@
         <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -979,13 +990,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="D3" s="6">
         <v>118</v>
@@ -993,10 +1004,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1007,13 +1018,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -1024,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1038,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -1052,7 +1063,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1066,7 +1077,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>11</v>
@@ -1080,7 +1091,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1091,16 +1102,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="D11" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,7 +1119,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1119,10 +1130,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -1133,13 +1144,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D14" s="6">
         <v>1184</v>
@@ -1150,7 +1161,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -1164,7 +1175,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>17</v>
@@ -1175,10 +1186,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1189,27 +1200,27 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" s="6">
         <v>916</v>
@@ -1220,7 +1231,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
@@ -1234,7 +1245,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>23</v>
@@ -1245,10 +1256,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
@@ -1259,13 +1270,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D23" s="4">
         <v>1160</v>
@@ -1276,7 +1287,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>25</v>
@@ -1287,13 +1298,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D25" s="4">
         <v>1175</v>
@@ -1301,13 +1312,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D26" s="4">
         <v>1176</v>
@@ -1315,13 +1326,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="4">
         <v>1177</v>
@@ -1329,13 +1340,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="4">
         <v>1178</v>
@@ -1343,13 +1354,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="6">
         <v>12</v>
@@ -1357,10 +1368,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>27</v>
@@ -1371,10 +1382,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>28</v>
@@ -1388,7 +1399,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>30</v>
@@ -1402,7 +1413,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>30</v>
@@ -1416,7 +1427,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>30</v>
@@ -1430,7 +1441,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>30</v>
@@ -1441,13 +1452,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D36" s="4">
         <v>750</v>
@@ -1455,13 +1466,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D37" s="4">
         <v>471</v>
@@ -1472,7 +1483,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
@@ -1486,7 +1497,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -1497,13 +1508,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D40" s="6">
         <v>272</v>
@@ -1511,13 +1522,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D41" s="4">
         <v>1157</v>
@@ -1525,10 +1536,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>37</v>
@@ -1542,7 +1553,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>39</v>
@@ -1553,10 +1564,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>40</v>
@@ -1567,13 +1578,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D45" s="4">
         <v>116</v>
@@ -1581,10 +1592,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>41</v>
@@ -1598,7 +1609,7 @@
         <v>42</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>43</v>
@@ -1609,10 +1620,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>44</v>
@@ -1626,7 +1637,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>46</v>
@@ -1640,7 +1651,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>48</v>
@@ -1651,10 +1662,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1665,10 +1676,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>48</v>
@@ -1679,13 +1690,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D53" s="4">
         <v>1181</v>
@@ -1693,13 +1704,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D54" s="6">
         <v>874</v>
@@ -1710,7 +1721,7 @@
         <v>49</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>50</v>
@@ -1721,13 +1732,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D56" s="4">
         <v>1167</v>
@@ -1738,7 +1749,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>52</v>
@@ -1752,7 +1763,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>52</v>
@@ -1763,10 +1774,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>54</v>
@@ -1780,7 +1791,7 @@
         <v>55</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>56</v>
@@ -1794,7 +1805,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>58</v>
@@ -1805,10 +1816,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>59</v>
@@ -1819,10 +1830,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>59</v>
@@ -1836,7 +1847,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>61</v>
@@ -1850,7 +1861,7 @@
         <v>60</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>61</v>
@@ -1861,13 +1872,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D66" s="6">
         <v>1457</v>
@@ -1875,10 +1886,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>63</v>
@@ -1889,13 +1900,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D68" s="6">
         <v>574</v>
@@ -1903,13 +1914,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D69" s="6">
         <v>1030</v>
@@ -1920,7 +1931,7 @@
         <v>64</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>65</v>
@@ -1934,7 +1945,7 @@
         <v>66</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>67</v>
@@ -1948,7 +1959,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>67</v>
@@ -1962,7 +1973,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>67</v>
@@ -1973,10 +1984,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>26</v>
@@ -1987,10 +1998,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>70</v>
@@ -2004,7 +2015,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>70</v>
@@ -2018,7 +2029,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>70</v>
@@ -2032,7 +2043,7 @@
         <v>73</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>74</v>
@@ -2043,13 +2054,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D79" s="6">
         <v>202</v>
@@ -2057,13 +2068,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D80" s="6">
         <v>2</v>
@@ -2071,13 +2082,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D81" s="6">
         <v>1458</v>
@@ -2090,18 +2101,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="20">
+    <cfRule type="expression" dxfId="3" priority="22">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D36 A38:D81">
+  <conditionalFormatting sqref="A4:D10 A12:D81">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D3">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:D37">
+  <conditionalFormatting sqref="A11:D11">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A37))&gt;0</formula>
+      <formula>LEN(TRIM(A11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
